--- a/LSB/TORRES, ROANNE MAY DINLASAN.xlsx
+++ b/LSB/TORRES, ROANNE MAY DINLASAN.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>PERIOD</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/10,11/2023</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1057,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,7 +1100,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1158,7 +1164,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1218,7 +1224,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1290,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1353,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1451,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1510,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1575,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1618,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1693,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1879,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1945,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +2003,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,7 +2069,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,7 +2125,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,7 +2200,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,7 +2243,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2309,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2365,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2463,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2526,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2969,7 +2975,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3221,8 +3227,12 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="42">
+        <v>45058</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="41"/>
       <c r="E13" s="10"/>
@@ -3233,8 +3243,12 @@
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="21"/>
+      <c r="J13" s="12">
+        <v>2</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>

--- a/LSB/TORRES, ROANNE MAY DINLASAN.xlsx
+++ b/LSB/TORRES, ROANNE MAY DINLASAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\LSB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\LSB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>PERIOD</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>5/10,11/2023</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1060,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1100,7 +1103,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +1167,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1224,7 +1227,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1293,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1356,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,7 +1454,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1513,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1578,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,7 +1621,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,7 +1696,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1882,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1945,7 +1948,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2006,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2072,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2128,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2203,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2246,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2309,7 +2312,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2368,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2466,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2529,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2595,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2970,12 +2973,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" activePane="bottomLeft"/>
+      <pane ySplit="3690" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3227,12 +3230,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
-        <v>45058</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>46</v>
-      </c>
+      <c r="A13" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="21"/>
       <c r="C13" s="14"/>
       <c r="D13" s="41"/>
       <c r="E13" s="10"/>
@@ -3243,16 +3244,16 @@
       </c>
       <c r="H13" s="41"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="12">
-        <v>2</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>47</v>
-      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="42">
+        <v>45058</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="41"/>
       <c r="E14" s="10"/>
@@ -3263,16 +3264,26 @@
       </c>
       <c r="H14" s="41"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="21"/>
+      <c r="J14" s="12">
+        <v>2</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="42">
+        <v>45108</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="C15" s="14"/>
       <c r="D15" s="41"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21">
+        <v>1</v>
+      </c>
       <c r="G15" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -3280,39 +3291,41 @@
       <c r="H15" s="41"/>
       <c r="I15" s="10"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="21"/>
+      <c r="K15" s="51">
+        <v>45114</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H16" s="45"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H16" s="41"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="16"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="41"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H17" s="41"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="45"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="21"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
@@ -5107,20 +5120,36 @@
       <c r="K129" s="21"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="43"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="45"/>
+      <c r="A130" s="42"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="41"/>
       <c r="E130" s="10"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="45"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="41"/>
       <c r="I130" s="10"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="16"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="21"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="43"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="45"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="45"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
